--- a/Project-Management/Sprint 2 Gantt Chart Planning and Decisions.xlsx
+++ b/Project-Management/Sprint 2 Gantt Chart Planning and Decisions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d24126048_mytudublin_ie/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\SafePath\Project-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{5AD82370-A10B-4140-9D7E-28C1BD8D4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A8D0E63-ABD8-4550-AC30-89EA5A325B20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C116248-F1B8-4DCE-A2B9-BA5E746D5D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABC7AA1-9AD4-4002-AC33-3494CC7CBE2D}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4ABC7AA1-9AD4-4002-AC33-3494CC7CBE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart - Dependencies and " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
   <si>
     <t>Task name</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Gantt Chart Planning for Sprint 2</t>
+  </si>
+  <si>
+    <t>Conduct competitive analysis and integrate insights into prototype</t>
   </si>
 </sst>
 </file>
@@ -802,10 +805,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D864422E-3F28-48B7-B5D2-D75C3938ED99}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,37 +1864,37 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45938</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45941</v>
+      </c>
+      <c r="G30" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="4">
-        <v>45936</v>
-      </c>
-      <c r="F30" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
@@ -1907,21 +1906,21 @@
         <v>45936</v>
       </c>
       <c r="F31" s="4">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="G31" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1930,46 +1929,50 @@
         <v>8</v>
       </c>
       <c r="E32" s="4">
+        <v>45936</v>
+      </c>
+      <c r="F32" s="4">
         <v>45937</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4">
+        <v>45937</v>
+      </c>
+      <c r="F33" s="4">
         <v>45938</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>10.1</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="34" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>11</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="4">
-        <v>45939</v>
-      </c>
-      <c r="F33" s="4">
-        <v>45940</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
@@ -1981,21 +1984,17 @@
         <v>45939</v>
       </c>
       <c r="F34" s="4">
-        <v>45939</v>
-      </c>
-      <c r="G34" s="3">
-        <v>11</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>45940</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>38</v>
@@ -2004,50 +2003,50 @@
         <v>49</v>
       </c>
       <c r="E35" s="4">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="F35" s="4">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="G35" s="3">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>53</v>
+      <c r="A36" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4">
         <v>45940</v>
       </c>
       <c r="F36" s="4">
-        <v>45942</v>
+        <v>45940</v>
       </c>
       <c r="G36" s="3">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
+      <c r="B37" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
@@ -2059,69 +2058,73 @@
         <v>45940</v>
       </c>
       <c r="F37" s="4">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="4">
+        <v>45940</v>
+      </c>
+      <c r="F38" s="4">
         <v>45941</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="3">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45941</v>
+      </c>
+      <c r="F39" s="4">
         <v>45942</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="3">
         <v>12.1</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="40" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>13</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="4">
-        <v>45936</v>
-      </c>
-      <c r="F39" s="4">
-        <v>45939</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>38</v>
@@ -2133,76 +2136,72 @@
         <v>45936</v>
       </c>
       <c r="F40" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G40" s="3">
-        <v>11</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>45939</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="4">
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="F41" s="4">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="G41" s="3">
-        <v>13.1</v>
+        <v>11</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>60</v>
+      <c r="A42" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E42" s="4">
         <v>45939</v>
       </c>
       <c r="F42" s="4">
-        <v>45943</v>
+        <v>45939</v>
       </c>
       <c r="G42" s="3">
-        <v>6</v>
+        <v>13.1</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>14.1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>29</v>
@@ -2211,73 +2210,73 @@
         <v>45939</v>
       </c>
       <c r="F43" s="4">
-        <v>45941</v>
+        <v>45943</v>
       </c>
       <c r="G43" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="4">
+        <v>45939</v>
+      </c>
+      <c r="F44" s="4">
         <v>45941</v>
       </c>
-      <c r="F44" s="4">
-        <v>45943</v>
-      </c>
       <c r="G44" s="3">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>15</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>63</v>
+      <c r="A45" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E45" s="4">
-        <v>45936</v>
+        <v>45941</v>
       </c>
       <c r="F45" s="4">
         <v>45943</v>
       </c>
       <c r="G45" s="3">
-        <v>8</v>
+        <v>14.1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>64</v>
+      <c r="A46" s="2">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -2289,10 +2288,10 @@
         <v>45936</v>
       </c>
       <c r="F46" s="4">
-        <v>45942</v>
+        <v>45943</v>
       </c>
       <c r="G46" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -2300,39 +2299,65 @@
     </row>
     <row r="47" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="4">
+        <v>45936</v>
+      </c>
+      <c r="F47" s="4">
+        <v>45942</v>
+      </c>
+      <c r="G47" s="3">
+        <v>15</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="4">
         <v>45943</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="4">
         <v>45943</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="3">
         <v>15.1</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+    <row r="49" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project-Management/Sprint 2 Gantt Chart Planning and Decisions.xlsx
+++ b/Project-Management/Sprint 2 Gantt Chart Planning and Decisions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\SafePath\Project-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C116248-F1B8-4DCE-A2B9-BA5E746D5D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6358039-899F-4979-9622-12295E60A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4ABC7AA1-9AD4-4002-AC33-3494CC7CBE2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ABC7AA1-9AD4-4002-AC33-3494CC7CBE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart - Dependencies and " sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="72">
-  <si>
-    <t>Task name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="125">
   <si>
     <t>Category</t>
   </si>
@@ -31,15 +28,6 @@
     <t>Assigned to</t>
   </si>
   <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
-    <t>Dependency (ID)</t>
-  </si>
-  <si>
     <t>Dependency Type</t>
   </si>
   <si>
@@ -52,15 +40,9 @@
     <t>Verify branch strategy and PR workflow</t>
   </si>
   <si>
-    <t>Start-to-Start</t>
-  </si>
-  <si>
     <t>Review &amp; resolve PR conflicts / CI checks</t>
   </si>
   <si>
-    <t>Finish-to-Start</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
     <t>Validate frontend toolchain &amp; API keys</t>
   </si>
   <si>
-    <t>Create Gantt chart for the project</t>
-  </si>
-  <si>
     <t>Shalini</t>
   </si>
   <si>
@@ -178,9 +157,6 @@
     <t>Review and finalize chart for upload</t>
   </si>
   <si>
-    <t>Finish-to-Finish</t>
-  </si>
-  <si>
     <t>Review previous projects (UX &amp; routing case studies)</t>
   </si>
   <si>
@@ -220,9 +196,6 @@
     <t>Upload finalized MOM documents to GitHub</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>(Sprint 1 Continued) Manage GitHub pushes, merges and commits</t>
   </si>
   <si>
@@ -232,16 +205,205 @@
     <t>(Sprint 1 Continued) Research academic papers Part 2 (AI-driven evaluation)</t>
   </si>
   <si>
-    <t>Gantt Chart Planning for Sprint 2</t>
-  </si>
-  <si>
     <t>Conduct competitive analysis and integrate insights into prototype</t>
+  </si>
+  <si>
+    <t>Predecessors</t>
+  </si>
+  <si>
+    <t>Dependency ID</t>
+  </si>
+  <si>
+    <t>1.1FS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>1SS</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>2.1FS</t>
+  </si>
+  <si>
+    <t>2FS</t>
+  </si>
+  <si>
+    <t>3.1FS</t>
+  </si>
+  <si>
+    <t>1FS</t>
+  </si>
+  <si>
+    <t>4.1FS</t>
+  </si>
+  <si>
+    <t>4FS</t>
+  </si>
+  <si>
+    <t>5.1FS</t>
+  </si>
+  <si>
+    <t>6.1FS</t>
+  </si>
+  <si>
+    <t>7.1FS</t>
+  </si>
+  <si>
+    <t>8.1FS</t>
+  </si>
+  <si>
+    <t>6FS</t>
+  </si>
+  <si>
+    <t>9.1FS</t>
+  </si>
+  <si>
+    <t>9.2SS</t>
+  </si>
+  <si>
+    <t>10.1FS</t>
+  </si>
+  <si>
+    <t>11.1FF</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>12.1FS</t>
+  </si>
+  <si>
+    <t>11FS</t>
+  </si>
+  <si>
+    <t>13.1FS</t>
+  </si>
+  <si>
+    <t>14.1FF</t>
+  </si>
+  <si>
+    <t>8SS</t>
+  </si>
+  <si>
+    <t>15.1FF</t>
+  </si>
+  <si>
+    <t>Flow Chart: 'Search For Route' Requirement</t>
+  </si>
+  <si>
+    <t>Draft Flow Chart</t>
+  </si>
+  <si>
+    <t>Review &amp; Finalize</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>16.1FS</t>
+  </si>
+  <si>
+    <t>Technical Architecture Confirmation</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Draft Architecture</t>
+  </si>
+  <si>
+    <t>Team Review &amp; Sign-Off</t>
+  </si>
+  <si>
+    <t>17.1FS</t>
+  </si>
+  <si>
+    <t>Website Application Development and Kickoff</t>
+  </si>
+  <si>
+    <t>Project Scaffolding &amp; Repository Setup</t>
+  </si>
+  <si>
+    <t>Core Layout &amp; Routing Skeleton</t>
+  </si>
+  <si>
+    <t>18.1FS</t>
+  </si>
+  <si>
+    <t>Initial Feature Stub - Search for Route</t>
+  </si>
+  <si>
+    <t>18.2FS</t>
+  </si>
+  <si>
+    <t>Weekly Videos Link</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Record 1-Minute Video 1</t>
+  </si>
+  <si>
+    <t>Record 1-Minute Video 2</t>
+  </si>
+  <si>
+    <t>Record 1-Minute Video 3</t>
+  </si>
+  <si>
+    <t>Record 1-Minute Video 4</t>
+  </si>
+  <si>
+    <t>Record 1-Minute Video 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Reflective Diary </t>
+  </si>
+  <si>
+    <t>Weekly Diary Compilation 1</t>
+  </si>
+  <si>
+    <t>Weekly Diary Compilation 2</t>
+  </si>
+  <si>
+    <t>Weekly Diary Compilation 3</t>
+  </si>
+  <si>
+    <t>Weekly Diary Compilation 4</t>
+  </si>
+  <si>
+    <t>Weekly Diary Compilation 5</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Gantt chart for Sprint 2 </t>
+  </si>
+  <si>
+    <t>Sprint 2 Gantt Chart Planning and Decisions (6 Oct - 13 Oct)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,23 +541,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="28"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="3" tint="0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -742,13 +904,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1124,67 +1293,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D864422E-3F28-48B7-B5D2-D75C3938ED99}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="79.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="86.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>45936</v>
@@ -1192,73 +1365,74 @@
       <c r="F3" s="4">
         <v>45937</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45936</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45936</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F5" s="7">
+        <v>45937</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45936</v>
-      </c>
-      <c r="F4" s="4">
-        <v>45936</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45937</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45937</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>45936</v>
@@ -1266,77 +1440,80 @@
       <c r="F6" s="4">
         <v>45938</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45936</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45937</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F8" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="6">
         <v>2.1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45936</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45937</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45937</v>
-      </c>
-      <c r="F8" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="I8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <v>45937</v>
@@ -1344,77 +1521,80 @@
       <c r="F9" s="4">
         <v>45939</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F11" s="7">
+        <v>45939</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="6">
         <v>3.1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45937</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="I11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45938</v>
-      </c>
-      <c r="F11" s="4">
-        <v>45939</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="D12" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E12" s="4">
         <v>45936</v>
@@ -1422,77 +1602,80 @@
       <c r="F12" s="4">
         <v>45939</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
         <v>45936</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>45937</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>45937</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>45939</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="I14" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>45938</v>
@@ -1500,77 +1683,80 @@
       <c r="F15" s="4">
         <v>45940</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="I15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F16" s="7">
+        <v>45939</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45939</v>
+      </c>
+      <c r="F17" s="7">
+        <v>45940</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45938</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45939</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45939</v>
-      </c>
-      <c r="F17" s="4">
-        <v>45940</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4">
         <v>45936</v>
@@ -1578,73 +1764,74 @@
       <c r="F18" s="4">
         <v>45938</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>6.1</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="7">
         <v>45936</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>45937</v>
       </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>6.2</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7">
         <v>45937</v>
       </c>
-      <c r="F20" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="6">
         <v>6.1</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="I20" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4">
         <v>45939</v>
@@ -1652,77 +1839,80 @@
       <c r="F21" s="4">
         <v>45941</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="I21" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>7.1</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7">
         <v>45939</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <v>45940</v>
       </c>
-      <c r="G22" s="3">
-        <v>7</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="G22" s="8"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>7.2</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="7">
         <v>45940</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="7">
         <v>45941</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="6">
         <v>7.1</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="I23" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4">
         <v>45936</v>
@@ -1730,73 +1920,74 @@
       <c r="F24" s="4">
         <v>45942</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
         <v>8.1</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7">
         <v>45936</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="7">
         <v>45937</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>45937</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>45942</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="6">
         <v>8.1</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="I26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4">
         <v>45938</v>
@@ -1804,103 +1995,109 @@
       <c r="F27" s="4">
         <v>45942</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="3">
         <v>6</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="I27" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>9.1</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4">
-        <v>45938</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F28" s="7">
         <v>45940</v>
       </c>
-      <c r="G28" s="3">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45940</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45942</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F30" s="7">
+        <v>45941</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="4">
-        <v>45940</v>
-      </c>
-      <c r="F29" s="4">
-        <v>45942</v>
-      </c>
-      <c r="G29" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="4">
-        <v>45938</v>
-      </c>
-      <c r="F30" s="4">
-        <v>45941</v>
-      </c>
-      <c r="G30" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="4">
         <v>45936</v>
@@ -1908,77 +2105,80 @@
       <c r="F31" s="4">
         <v>45938</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="I31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>10.1</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="B32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
         <v>45936</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="7">
         <v>45937</v>
       </c>
-      <c r="G32" s="3">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="G32" s="8"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="B33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7">
         <v>45937</v>
       </c>
-      <c r="F33" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="6">
         <v>10.1</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="I33" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
         <v>11</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
+      <c r="B34" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E34" s="4">
         <v>45939</v>
@@ -1986,73 +2186,74 @@
       <c r="F34" s="4">
         <v>45940</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>11.1</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="B35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="7">
         <v>45939</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="7">
         <v>45939</v>
       </c>
-      <c r="G35" s="3">
-        <v>11</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="G35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <v>11.2</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="B36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="7">
         <v>45940</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="7">
         <v>45940</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="6">
         <v>11.1</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="I36" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>12</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>53</v>
+      <c r="B37" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E37" s="4">
         <v>45940</v>
@@ -2060,77 +2261,80 @@
       <c r="F37" s="4">
         <v>45942</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="3">
         <v>2</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="I37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>12.1</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45940</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45941</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45941</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45942</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>13</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="4">
-        <v>45940</v>
-      </c>
-      <c r="F38" s="4">
-        <v>45941</v>
-      </c>
-      <c r="G38" s="3">
-        <v>12</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="4">
-        <v>45941</v>
-      </c>
-      <c r="F39" s="4">
-        <v>45942</v>
-      </c>
-      <c r="G39" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>56</v>
+      <c r="B40" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E40" s="4">
         <v>45936</v>
@@ -2138,73 +2342,80 @@
       <c r="F40" s="4">
         <v>45939</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
         <v>13.1</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="4">
+      <c r="C41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="7">
         <v>45936</v>
       </c>
-      <c r="F41" s="4">
-        <v>45938</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F41" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="6">
         <v>11</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="I41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>13.2</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="7">
         <v>45939</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="7">
         <v>45939</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="6">
         <v>13.1</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="I42" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>14</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
+      <c r="B43" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E43" s="4">
         <v>45939</v>
@@ -2212,77 +2423,80 @@
       <c r="F43" s="4">
         <v>45943</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="3">
         <v>6</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="I43" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
         <v>14.1</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="B44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="7">
         <v>45939</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="7">
         <v>45941</v>
       </c>
-      <c r="G44" s="3">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="G44" s="8"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
         <v>14.2</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="B45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="7">
         <v>45941</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="7">
         <v>45943</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="6">
         <v>14.1</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="I45" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
         <v>15</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>63</v>
+      <c r="B46" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4">
         <v>45936</v>
@@ -2290,74 +2504,619 @@
       <c r="F46" s="4">
         <v>45943</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="3">
         <v>8</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+      <c r="I46" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>15.1</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45936</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45942</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45943</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45943</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>16</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45937</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45938</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45937</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>17</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="4">
-        <v>45936</v>
-      </c>
-      <c r="F47" s="4">
-        <v>45942</v>
-      </c>
-      <c r="G47" s="3">
-        <v>15</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45937</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45938</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45937</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="4">
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>18</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4">
+        <v>45937</v>
+      </c>
+      <c r="F55" s="4">
+        <v>45938</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45937</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>19</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="4">
+        <v>45937</v>
+      </c>
+      <c r="F59" s="4">
+        <v>45938</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>19.2</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45937</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45938</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>20</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="4">
+        <v>45938</v>
+      </c>
+      <c r="F65" s="4">
         <v>45943</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G65" s="5"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F66" s="7">
         <v>45943</v>
       </c>
-      <c r="G48" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>20.2</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45943</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45943</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45943</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45943</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
